--- a/Jogos_do_Dia/2023-04-20_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-20_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.85</v>
+        <v>2.76</v>
       </c>
       <c r="G2" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="I2" t="n">
         <v>1.07</v>
@@ -653,10 +653,10 @@
         <v>3.25</v>
       </c>
       <c r="M2" t="n">
-        <v>2.05</v>
+        <v>2.19</v>
       </c>
       <c r="N2" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -720,8 +720,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>7489</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
       </c>
       <c r="B3" s="2" t="n">
         <v>45035.92013888889</v>
@@ -828,8 +830,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>7489</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
       </c>
       <c r="B4" s="2" t="n">
         <v>45036.00347222222</v>
@@ -936,8 +940,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>9186</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
       </c>
       <c r="B5" s="2" t="n">
         <v>45036.35763888889</v>
@@ -956,52 +962,52 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1019,28 +1025,28 @@
         <v>1.22</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="6">
@@ -1066,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H6" t="n">
         <v>3.45</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.98</v>
       </c>
       <c r="I6" t="n">
         <v>1.05</v>
@@ -1087,10 +1093,10 @@
         <v>3.9</v>
       </c>
       <c r="M6" t="n">
-        <v>1.72</v>
+        <v>1.89</v>
       </c>
       <c r="N6" t="n">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1156,57 +1162,57 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Denmark 1st Division</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45036.54166666666</v>
+        <v>45036.51041666666</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Næstved</t>
+          <t>Čukarički</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Partizan</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.95</v>
+        <v>2.9</v>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="H7" t="n">
-        <v>1.79</v>
+        <v>2.44</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.81</v>
+        <v>2.11</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="Q7" t="n">
         <v>1.8</v>
@@ -1215,272 +1221,272 @@
         <v>1.91</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V7" t="n">
-        <v>1.46</v>
+        <v>2.29</v>
       </c>
       <c r="W7" t="n">
-        <v>2.08</v>
+        <v>2.21</v>
       </c>
       <c r="X7" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.39</v>
+        <v>3.33</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Denmark 1st Division</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45036.60416666666</v>
+        <v>45036.54166666666</v>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Næstved</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.62</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
         <v>3.35</v>
       </c>
       <c r="H8" t="n">
-        <v>2.38</v>
+        <v>1.83</v>
       </c>
       <c r="I8" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="J8" t="n">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="K8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="L8" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="M8" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="N8" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AF8" t="n">
         <v>1.9</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>2.13</v>
-      </c>
       <c r="AG8" t="n">
-        <v>2.9</v>
+        <v>2.39</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45036.67708333334</v>
+        <v>45036.60416666666</v>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ismaily SC</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.3</v>
+        <v>2.62</v>
       </c>
       <c r="G9" t="n">
-        <v>2.7</v>
+        <v>3.35</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="I9" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="J9" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="K9" t="n">
-        <v>1.62</v>
+        <v>1.29</v>
       </c>
       <c r="L9" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="M9" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AG9" t="n">
         <v>2.9</v>
       </c>
-      <c r="N9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="10">
@@ -1497,76 +1503,76 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Ismaily SC</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.99</v>
+        <v>2.29</v>
       </c>
       <c r="G10" t="n">
-        <v>2.93</v>
+        <v>2.73</v>
       </c>
       <c r="H10" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="I10" t="n">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="J10" t="n">
-        <v>7.75</v>
+        <v>5.5</v>
       </c>
       <c r="K10" t="n">
-        <v>1.42</v>
+        <v>1.56</v>
       </c>
       <c r="L10" t="n">
-        <v>2.6</v>
+        <v>2.28</v>
       </c>
       <c r="M10" t="n">
-        <v>2.17</v>
+        <v>2.71</v>
       </c>
       <c r="N10" t="n">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="P10" t="n">
-        <v>2.56</v>
+        <v>2.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.98</v>
+        <v>2.38</v>
       </c>
       <c r="R10" t="n">
-        <v>1.74</v>
+        <v>1.53</v>
       </c>
       <c r="S10" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="T10" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="U10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V10" t="n">
-        <v>1.31</v>
+        <v>1.58</v>
       </c>
       <c r="W10" t="n">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="X10" t="n">
-        <v>1.51</v>
+        <v>1.67</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="Z10" t="n">
-        <v>3.03</v>
+        <v>3.06</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -1596,111 +1602,111 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45036.79166666666</v>
+        <v>45036.67708333334</v>
       </c>
       <c r="C11" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Racing Córdoba</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>1.31</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="X11" t="n">
-        <v>1.71</v>
+        <v>1.51</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.91</v>
+        <v>3.03</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="12">
@@ -1717,12 +1723,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Racing Córdoba</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tristán Suárez</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1774,19 +1780,19 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.56</v>
+        <v>1.2</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.25</v>
+        <v>2.91</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -1827,12 +1833,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ferro Carril Oeste</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Chacarita Juniors</t>
+          <t>Tristán Suárez</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1884,19 +1890,19 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>1.17</v>
       </c>
       <c r="X13" t="n">
-        <v>1.39</v>
+        <v>1.69</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.84</v>
+        <v>3.25</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -1937,12 +1943,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Ferro Carril Oeste</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Club Atlético Mitre</t>
+          <t>Chacarita Juniors</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1994,19 +2000,19 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
@@ -2047,12 +2053,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Club Atlético Mitre</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2104,19 +2110,19 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="W15" t="n">
         <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.22</v>
+        <v>1.54</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.57</v>
+        <v>2.74</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -2157,12 +2163,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Brown de Adrogué</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -2214,19 +2220,19 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.83</v>
+        <v>1</v>
       </c>
       <c r="W16" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.56</v>
+        <v>1.22</v>
       </c>
       <c r="Z16" t="n">
-        <v>3.04</v>
+        <v>2.57</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
@@ -2267,12 +2273,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Estudiantes Caseros</t>
+          <t>Brown de Adrogué</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Deportivo Maipú</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2324,19 +2330,19 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.17</v>
+        <v>1.83</v>
       </c>
       <c r="W17" t="n">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="X17" t="n">
         <v>1.48</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.91</v>
+        <v>3.04</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -2377,12 +2383,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Atlético Rafaela</t>
+          <t>Estudiantes Caseros</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Villa Dálmine</t>
+          <t>Deportivo Maipú</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2434,19 +2440,19 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>1.83</v>
+        <v>1.17</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X18" t="n">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.16</v>
+        <v>1.43</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.83</v>
+        <v>2.91</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
@@ -2487,12 +2493,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Atlético Rafaela</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Villa Dálmine</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2544,19 +2550,19 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.99</v>
+        <v>2.83</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
@@ -2586,87 +2592,87 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera B</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45036.83333333334</v>
+        <v>45036.79166666666</v>
       </c>
       <c r="C20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Fortaleza CEIF</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Valledupar</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>2.57</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="W20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.43</v>
+        <v>1.77</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.61</v>
+        <v>2.99</v>
       </c>
       <c r="AA20" t="n">
         <v>0</v>
@@ -2694,84 +2700,86 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>7489</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45036.875</v>
+        <v>45036.83333333334</v>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Leones Negros de la Universidad de Guadalajara</t>
+          <t>Fortaleza CEIF</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Dorados</t>
+          <t>Valledupar</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="G21" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="I21" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="J21" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K21" t="n">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="L21" t="n">
-        <v>3.5</v>
+        <v>2.57</v>
       </c>
       <c r="M21" t="n">
-        <v>1.76</v>
+        <v>2.29</v>
       </c>
       <c r="N21" t="n">
-        <v>1.83</v>
+        <v>1.51</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="P21" t="n">
-        <v>2.85</v>
+        <v>2.44</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.66</v>
+        <v>2.16</v>
       </c>
       <c r="R21" t="n">
-        <v>1.95</v>
+        <v>1.59</v>
       </c>
       <c r="S21" t="n">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="T21" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="U21" t="n">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="V21" t="n">
-        <v>1.78</v>
+        <v>2.2</v>
       </c>
       <c r="W21" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>1.65</v>
+        <v>1.43</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.96</v>
+        <v>1.18</v>
       </c>
       <c r="Z21" t="n">
         <v>2.61</v>
@@ -2798,6 +2806,116 @@
         <v>0</v>
       </c>
       <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45036.875</v>
+      </c>
+      <c r="C22" t="n">
+        <v>17</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Leones Negros de la Universidad de Guadalajara</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Dorados</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J22" t="n">
+        <v>12</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-04-20_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-20_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="H5" t="n">
-        <v>2.74</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
         <v>1.05</v>
@@ -983,10 +983,10 @@
         <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="G6" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="H6" t="n">
-        <v>3.45</v>
+        <v>2.98</v>
       </c>
       <c r="I6" t="n">
         <v>1.05</v>
@@ -1093,10 +1093,10 @@
         <v>3.9</v>
       </c>
       <c r="M6" t="n">
-        <v>1.89</v>
+        <v>1.72</v>
       </c>
       <c r="N6" t="n">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="G8" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="I8" t="n">
         <v>1.04</v>
@@ -1313,10 +1313,10 @@
         <v>3.55</v>
       </c>
       <c r="M8" t="n">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="N8" t="n">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
